--- a/data_raw/12_fish.xlsx
+++ b/data_raw/12_fish.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gradi\Dropbox\fish_parasite\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6246F14-FB55-4210-A8D2-88BA1B9983EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C879D1A-F8B4-42B0-807F-9F81B0948BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{07765D9D-DE47-4D16-83E1-981EF745AE6F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{07765D9D-DE47-4D16-83E1-981EF745AE6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="269">
   <si>
     <t>B/GR</t>
   </si>
@@ -95,9 +95,6 @@
     <t>47.0</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>BR/G</t>
   </si>
   <si>
@@ -546,6 +543,306 @@
   </si>
   <si>
     <t>1177.68</t>
+  </si>
+  <si>
+    <t>ID_fish</t>
+  </si>
+  <si>
+    <t>num_fish</t>
+  </si>
+  <si>
+    <t>cage</t>
+  </si>
+  <si>
+    <t>trial</t>
+  </si>
+  <si>
+    <t>boldness</t>
+  </si>
+  <si>
+    <t>bassin_bold</t>
+  </si>
+  <si>
+    <t>date_bold</t>
+  </si>
+  <si>
+    <t>exp_bold</t>
+  </si>
+  <si>
+    <t>video_bold</t>
+  </si>
+  <si>
+    <t>exploration</t>
+  </si>
+  <si>
+    <t>activity</t>
+  </si>
+  <si>
+    <t>bassin_exp</t>
+  </si>
+  <si>
+    <t>date_act</t>
+  </si>
+  <si>
+    <t>video_act</t>
+  </si>
+  <si>
+    <t>exp_act</t>
+  </si>
+  <si>
+    <t>mass_1</t>
+  </si>
+  <si>
+    <t>mass_2</t>
+  </si>
+  <si>
+    <t>mass_3</t>
+  </si>
+  <si>
+    <t>mass_4</t>
+  </si>
+  <si>
+    <t>TL_1</t>
+  </si>
+  <si>
+    <t>TL_2</t>
+  </si>
+  <si>
+    <t>TL_3</t>
+  </si>
+  <si>
+    <t>TL_4</t>
+  </si>
+  <si>
+    <t>SL_1</t>
+  </si>
+  <si>
+    <t>SL_2</t>
+  </si>
+  <si>
+    <t>SL_3</t>
+  </si>
+  <si>
+    <t>SL_4</t>
+  </si>
+  <si>
+    <t>BS_pre</t>
+  </si>
+  <si>
+    <t>BS_post_corps</t>
+  </si>
+  <si>
+    <t>BS_muscle</t>
+  </si>
+  <si>
+    <t>BS_post_tot</t>
+  </si>
+  <si>
+    <t>P04_alive</t>
+  </si>
+  <si>
+    <t>P04_dead</t>
+  </si>
+  <si>
+    <t>P013_alive</t>
+  </si>
+  <si>
+    <t>P013_dead</t>
+  </si>
+  <si>
+    <t>P06</t>
+  </si>
+  <si>
+    <t>gonade</t>
+  </si>
+  <si>
+    <t>treatment</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>28/06/2022</t>
+  </si>
+  <si>
+    <t>0.2269338</t>
+  </si>
+  <si>
+    <t>1059.2</t>
+  </si>
+  <si>
+    <t>22/06/2022</t>
+  </si>
+  <si>
+    <t>01/07/2022</t>
+  </si>
+  <si>
+    <t>0.2058559</t>
+  </si>
+  <si>
+    <t>784.07</t>
+  </si>
+  <si>
+    <t>29/06/2022</t>
+  </si>
+  <si>
+    <t>0.1988783</t>
+  </si>
+  <si>
+    <t>977.81</t>
+  </si>
+  <si>
+    <t>23/06/2022</t>
+  </si>
+  <si>
+    <t>0.3064516</t>
+  </si>
+  <si>
+    <t>978.85</t>
+  </si>
+  <si>
+    <t>30/06/2022</t>
+  </si>
+  <si>
+    <t>0.2572509</t>
+  </si>
+  <si>
+    <t>1436.42</t>
+  </si>
+  <si>
+    <t>24/06/2022</t>
+  </si>
+  <si>
+    <t>0.2299285</t>
+  </si>
+  <si>
+    <t>1228.21</t>
+  </si>
+  <si>
+    <t>0.1302409</t>
+  </si>
+  <si>
+    <t>752.78</t>
+  </si>
+  <si>
+    <t>0.2825712</t>
+  </si>
+  <si>
+    <t>1436.08</t>
+  </si>
+  <si>
+    <t>0.08152415</t>
+  </si>
+  <si>
+    <t>303.47</t>
+  </si>
+  <si>
+    <t>0.2601381</t>
+  </si>
+  <si>
+    <t>1131.07</t>
+  </si>
+  <si>
+    <t>0.214444</t>
+  </si>
+  <si>
+    <t>730.92</t>
+  </si>
+  <si>
+    <t>0.1191848</t>
+  </si>
+  <si>
+    <t>1514.84</t>
+  </si>
+  <si>
+    <t>04/07/2022</t>
+  </si>
+  <si>
+    <t>0.349136</t>
+  </si>
+  <si>
+    <t>1067.58</t>
+  </si>
+  <si>
+    <t>02/07/2022</t>
+  </si>
+  <si>
+    <t>06/07/2022</t>
+  </si>
+  <si>
+    <t>0.2771429</t>
+  </si>
+  <si>
+    <t>637.2</t>
+  </si>
+  <si>
+    <t>05/07/2022</t>
+  </si>
+  <si>
+    <t>0.2274065</t>
+  </si>
+  <si>
+    <t>905.44</t>
+  </si>
+  <si>
+    <t>03/07/2022</t>
+  </si>
+  <si>
+    <t>0.2337116</t>
+  </si>
+  <si>
+    <t>501.88</t>
+  </si>
+  <si>
+    <t>0.369074</t>
+  </si>
+  <si>
+    <t>684.67</t>
+  </si>
+  <si>
+    <t>0.241869</t>
+  </si>
+  <si>
+    <t>590.77</t>
+  </si>
+  <si>
+    <t>0.03069171</t>
+  </si>
+  <si>
+    <t>462.82</t>
+  </si>
+  <si>
+    <t>0.3513514</t>
+  </si>
+  <si>
+    <t>1056.75</t>
+  </si>
+  <si>
+    <t>0.258548</t>
+  </si>
+  <si>
+    <t>394.97</t>
+  </si>
+  <si>
+    <t>0.3346995</t>
+  </si>
+  <si>
+    <t>526.27</t>
+  </si>
+  <si>
+    <t>0.3688933</t>
+  </si>
+  <si>
+    <t>568.02</t>
+  </si>
+  <si>
+    <t>0.3947368</t>
+  </si>
+  <si>
+    <t>613.31</t>
+  </si>
+  <si>
+    <t>E</t>
   </si>
 </sst>
 </file>
@@ -897,223 +1194,223 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96654684-AD33-4A08-BF47-85BE002B90D6}">
-  <dimension ref="A1:AL24"/>
+  <dimension ref="A1:AL49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AM38" sqref="AM38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>61</v>
+        <v>169</v>
+      </c>
+      <c r="B1" t="s">
+        <v>170</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>48</v>
-      </c>
-      <c r="F1">
-        <v>2</v>
+        <v>171</v>
+      </c>
+      <c r="D1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" t="s">
+        <v>174</v>
       </c>
       <c r="G1" t="s">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="H1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I1">
-        <v>717</v>
+        <v>176</v>
+      </c>
+      <c r="I1" t="s">
+        <v>177</v>
       </c>
       <c r="J1" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="K1" t="s">
-        <v>141</v>
-      </c>
-      <c r="L1">
-        <v>1</v>
+        <v>179</v>
+      </c>
+      <c r="L1" t="s">
+        <v>180</v>
       </c>
       <c r="M1" t="s">
-        <v>142</v>
-      </c>
-      <c r="N1">
-        <v>6</v>
+        <v>181</v>
+      </c>
+      <c r="N1" t="s">
+        <v>182</v>
       </c>
       <c r="O1" t="s">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="P1" t="s">
-        <v>7</v>
+        <v>184</v>
       </c>
       <c r="Q1" t="s">
-        <v>8</v>
+        <v>185</v>
       </c>
       <c r="R1" t="s">
-        <v>9</v>
+        <v>186</v>
       </c>
       <c r="S1" t="s">
-        <v>10</v>
+        <v>187</v>
       </c>
       <c r="T1" t="s">
-        <v>11</v>
+        <v>188</v>
       </c>
       <c r="U1" t="s">
-        <v>12</v>
+        <v>189</v>
       </c>
       <c r="V1" t="s">
-        <v>13</v>
+        <v>190</v>
       </c>
       <c r="W1" t="s">
-        <v>14</v>
+        <v>191</v>
       </c>
       <c r="X1" t="s">
-        <v>15</v>
+        <v>192</v>
       </c>
       <c r="Y1" t="s">
-        <v>16</v>
+        <v>193</v>
       </c>
       <c r="Z1" t="s">
-        <v>17</v>
+        <v>194</v>
       </c>
       <c r="AA1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>2</v>
-      </c>
-      <c r="AD1">
-        <v>2</v>
-      </c>
-      <c r="AE1">
-        <v>4</v>
-      </c>
-      <c r="AF1">
-        <v>0</v>
-      </c>
-      <c r="AG1">
-        <v>0</v>
-      </c>
-      <c r="AH1">
-        <v>0</v>
-      </c>
-      <c r="AI1">
-        <v>0</v>
-      </c>
-      <c r="AJ1">
-        <v>0</v>
-      </c>
-      <c r="AK1">
-        <v>1</v>
+        <v>195</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>205</v>
       </c>
       <c r="AL1" t="s">
-        <v>19</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>138</v>
+        <v>208</v>
       </c>
       <c r="H2" t="s">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="I2">
         <v>4620</v>
       </c>
       <c r="J2" t="s">
-        <v>144</v>
+        <v>209</v>
       </c>
       <c r="K2" t="s">
-        <v>145</v>
+        <v>210</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M2" t="s">
-        <v>142</v>
+        <v>211</v>
       </c>
       <c r="N2">
-        <v>4</v>
+        <v>4501</v>
       </c>
       <c r="O2" t="s">
-        <v>143</v>
+        <v>3</v>
       </c>
       <c r="P2" t="s">
         <v>7</v>
       </c>
       <c r="Q2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="S2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T2" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="U2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="V2" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="W2" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="X2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Y2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="Z2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="AA2" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="AB2">
         <v>2</v>
       </c>
       <c r="AC2">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE2">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -1131,105 +1428,105 @@
         <v>0</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL2" t="s">
-        <v>19</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B3">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="H3" t="s">
-        <v>143</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>984</v>
       </c>
       <c r="J3" t="s">
-        <v>147</v>
+        <v>213</v>
       </c>
       <c r="K3" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>149</v>
+        <v>211</v>
       </c>
       <c r="N3">
-        <v>701</v>
+        <v>951</v>
       </c>
       <c r="O3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="P3" t="s">
         <v>7</v>
       </c>
       <c r="Q3" t="s">
+        <v>7</v>
+      </c>
+      <c r="R3" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T3" t="s">
         <v>25</v>
       </c>
-      <c r="R3" t="s">
-        <v>25</v>
-      </c>
-      <c r="S3" t="s">
-        <v>25</v>
-      </c>
-      <c r="T3" t="s">
-        <v>39</v>
-      </c>
       <c r="U3" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="V3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W3" t="s">
+        <v>28</v>
+      </c>
+      <c r="X3" t="s">
         <v>29</v>
       </c>
-      <c r="W3" t="s">
-        <v>29</v>
-      </c>
-      <c r="X3" t="s">
-        <v>41</v>
-      </c>
       <c r="Y3" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="Z3" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="AA3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AB3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AC3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AD3">
         <v>1</v>
       </c>
       <c r="AE3">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1250,102 +1547,102 @@
         <v>0</v>
       </c>
       <c r="AL3" t="s">
-        <v>19</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
         <v>45</v>
       </c>
-      <c r="B4">
-        <v>63</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>215</v>
+      </c>
+      <c r="H4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>526</v>
+      </c>
+      <c r="J4" t="s">
+        <v>216</v>
+      </c>
+      <c r="K4" t="s">
+        <v>217</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4" t="s">
         <v>218</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H4" t="s">
-        <v>143</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
-        <v>150</v>
-      </c>
-      <c r="K4" t="s">
-        <v>151</v>
-      </c>
-      <c r="L4">
-        <v>4</v>
-      </c>
-      <c r="M4" t="s">
-        <v>149</v>
-      </c>
       <c r="N4">
-        <v>4609</v>
+        <v>956</v>
       </c>
       <c r="O4" t="s">
         <v>3</v>
       </c>
       <c r="P4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Q4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T4" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="U4" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" t="s">
+        <v>28</v>
+      </c>
+      <c r="W4" t="s">
+        <v>28</v>
+      </c>
+      <c r="X4" t="s">
         <v>40</v>
       </c>
-      <c r="V4" t="s">
-        <v>49</v>
-      </c>
-      <c r="W4" t="s">
-        <v>49</v>
-      </c>
-      <c r="X4" t="s">
-        <v>50</v>
-      </c>
       <c r="Y4" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Z4" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AA4" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AB4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AC4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AD4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE4">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1366,108 +1663,108 @@
         <v>0</v>
       </c>
       <c r="AL4" t="s">
-        <v>19</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B5">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>152</v>
+        <v>215</v>
       </c>
       <c r="H5" t="s">
-        <v>143</v>
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>7</v>
+        <v>975</v>
       </c>
       <c r="J5" t="s">
-        <v>153</v>
+        <v>219</v>
       </c>
       <c r="K5" t="s">
-        <v>154</v>
+        <v>220</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>155</v>
+        <v>218</v>
       </c>
       <c r="N5">
-        <v>5</v>
+        <v>4591</v>
       </c>
       <c r="O5" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="P5" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="Q5" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="R5" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="S5" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="T5" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="U5" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="V5" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="W5" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="X5" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="Y5" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="Z5" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="AA5" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AF5">
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH5">
         <v>0</v>
@@ -1479,111 +1776,111 @@
         <v>0</v>
       </c>
       <c r="AK5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="s">
-        <v>19</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="B6">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>162</v>
+        <v>199</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>152</v>
+        <v>221</v>
       </c>
       <c r="H6" t="s">
-        <v>143</v>
+        <v>3</v>
       </c>
       <c r="I6">
-        <v>5</v>
+        <v>980</v>
       </c>
       <c r="J6" t="s">
-        <v>156</v>
+        <v>222</v>
       </c>
       <c r="K6" t="s">
-        <v>157</v>
+        <v>223</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M6" t="s">
-        <v>155</v>
+        <v>224</v>
       </c>
       <c r="N6">
-        <v>708</v>
+        <v>6</v>
       </c>
       <c r="O6" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="P6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>59</v>
+      </c>
+      <c r="R6" t="s">
+        <v>60</v>
+      </c>
+      <c r="S6" t="s">
+        <v>61</v>
+      </c>
+      <c r="T6" t="s">
         <v>62</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>60</v>
-      </c>
-      <c r="R6" t="s">
-        <v>74</v>
-      </c>
-      <c r="S6" t="s">
-        <v>74</v>
-      </c>
-      <c r="T6" t="s">
-        <v>75</v>
       </c>
       <c r="U6" t="s">
         <v>63</v>
       </c>
       <c r="V6" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="W6" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="X6" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="Y6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Z6" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="AA6" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="AB6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH6">
         <v>0</v>
@@ -1598,340 +1895,340 @@
         <v>1</v>
       </c>
       <c r="AL6" t="s">
-        <v>19</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B7">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>211</v>
+        <v>45</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>152</v>
+        <v>221</v>
       </c>
       <c r="H7" t="s">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="I7">
-        <v>4633</v>
+        <v>15</v>
       </c>
       <c r="J7" t="s">
-        <v>158</v>
+        <v>225</v>
       </c>
       <c r="K7" t="s">
-        <v>159</v>
+        <v>226</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M7" t="s">
-        <v>155</v>
+        <v>224</v>
       </c>
       <c r="N7">
-        <v>4614</v>
+        <v>574</v>
       </c>
       <c r="O7" t="s">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="P7" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="Q7" t="s">
+        <v>59</v>
+      </c>
+      <c r="R7" t="s">
+        <v>73</v>
+      </c>
+      <c r="S7" t="s">
+        <v>73</v>
+      </c>
+      <c r="T7" t="s">
         <v>74</v>
       </c>
-      <c r="R7" t="s">
-        <v>84</v>
-      </c>
-      <c r="S7" t="s">
-        <v>61</v>
-      </c>
-      <c r="T7" t="s">
-        <v>85</v>
-      </c>
       <c r="U7" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="V7" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="W7" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="X7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA7" t="s">
         <v>78</v>
       </c>
-      <c r="Y7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>91</v>
-      </c>
       <c r="AB7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AD7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE7">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AF7">
         <v>0</v>
       </c>
       <c r="AG7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH7">
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ7">
         <v>0</v>
       </c>
       <c r="AK7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL7" t="s">
-        <v>19</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B8">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>37</v>
+        <v>396</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>138</v>
+        <v>221</v>
       </c>
       <c r="H8" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I8">
-        <v>6</v>
+        <v>588</v>
       </c>
       <c r="J8" t="s">
-        <v>160</v>
+        <v>227</v>
       </c>
       <c r="K8" t="s">
-        <v>161</v>
+        <v>228</v>
       </c>
       <c r="L8">
         <v>4</v>
       </c>
       <c r="M8" t="s">
-        <v>142</v>
+        <v>224</v>
       </c>
       <c r="N8">
-        <v>4603</v>
+        <v>4514</v>
       </c>
       <c r="O8" t="s">
         <v>3</v>
       </c>
       <c r="P8" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="Q8" t="s">
+        <v>73</v>
+      </c>
+      <c r="R8" t="s">
+        <v>83</v>
+      </c>
+      <c r="S8" t="s">
         <v>60</v>
       </c>
-      <c r="R8" t="s">
-        <v>74</v>
-      </c>
-      <c r="S8" t="s">
-        <v>74</v>
-      </c>
       <c r="T8" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="U8" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="V8" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="W8" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="X8" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="Y8" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="Z8" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="AA8" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AB8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AD8">
         <v>2</v>
       </c>
       <c r="AE8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AF8">
         <v>0</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH8">
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ8">
         <v>0</v>
       </c>
       <c r="AK8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="s">
-        <v>19</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B9">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>138</v>
+        <v>212</v>
       </c>
       <c r="H9" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I9">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>162</v>
+        <v>229</v>
       </c>
       <c r="K9" t="s">
-        <v>163</v>
+        <v>230</v>
       </c>
       <c r="L9">
         <v>4</v>
       </c>
       <c r="M9" t="s">
-        <v>142</v>
+        <v>211</v>
       </c>
       <c r="N9">
-        <v>4602</v>
+        <v>4502</v>
       </c>
       <c r="O9" t="s">
         <v>3</v>
       </c>
       <c r="P9" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="Q9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R9" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="S9" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="T9" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="U9" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="V9" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="W9" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="X9" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="Y9" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="Z9" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="AA9" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="AB9">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="AC9">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="AD9">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AE9">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="AF9">
         <v>0</v>
       </c>
       <c r="AG9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AH9">
         <v>0</v>
@@ -1943,111 +2240,111 @@
         <v>0</v>
       </c>
       <c r="AK9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL9" t="s">
-        <v>19</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B10">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>96</v>
+        <v>184</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G10" t="s">
-        <v>152</v>
+        <v>212</v>
       </c>
       <c r="H10" t="s">
-        <v>143</v>
+        <v>3</v>
       </c>
       <c r="I10">
-        <v>766</v>
+        <v>4534</v>
       </c>
       <c r="J10" t="s">
-        <v>164</v>
+        <v>231</v>
       </c>
       <c r="K10" t="s">
-        <v>165</v>
+        <v>232</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M10" t="s">
-        <v>155</v>
+        <v>211</v>
       </c>
       <c r="N10">
-        <v>4615</v>
+        <v>4585</v>
       </c>
       <c r="O10" t="s">
         <v>3</v>
       </c>
       <c r="P10" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="Q10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R10" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="S10" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="T10" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="U10" t="s">
-        <v>118</v>
+        <v>17</v>
       </c>
       <c r="V10" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="W10" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="X10" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="Y10" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="Z10" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="AA10" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AC10">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AE10">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="AF10">
         <v>0</v>
       </c>
       <c r="AG10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH10">
         <v>0</v>
@@ -2062,108 +2359,108 @@
         <v>0</v>
       </c>
       <c r="AL10" t="s">
-        <v>19</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="B11">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>16</v>
+        <v>207</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>146</v>
+        <v>221</v>
       </c>
       <c r="H11" t="s">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="I11">
-        <v>1111</v>
+        <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>166</v>
+        <v>233</v>
       </c>
       <c r="K11" t="s">
-        <v>167</v>
+        <v>234</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M11" t="s">
-        <v>149</v>
+        <v>224</v>
       </c>
       <c r="N11">
-        <v>4607</v>
+        <v>962</v>
       </c>
       <c r="O11" t="s">
         <v>3</v>
       </c>
       <c r="P11" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="Q11" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="R11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S11" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="T11" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="U11" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="V11" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="W11" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="X11" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="Y11" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="Z11" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="AA11" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="AB11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF11">
         <v>0</v>
       </c>
       <c r="AG11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH11">
         <v>0</v>
@@ -2178,108 +2475,108 @@
         <v>0</v>
       </c>
       <c r="AL11" t="s">
-        <v>19</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B12">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="F12">
         <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>146</v>
+        <v>215</v>
       </c>
       <c r="H12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I12">
-        <v>723</v>
+        <v>4635</v>
       </c>
       <c r="J12" t="s">
-        <v>168</v>
+        <v>235</v>
       </c>
       <c r="K12" t="s">
-        <v>169</v>
+        <v>236</v>
       </c>
       <c r="L12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M12" t="s">
-        <v>149</v>
+        <v>218</v>
       </c>
       <c r="N12">
-        <v>1092</v>
+        <v>4</v>
       </c>
       <c r="O12" t="s">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="P12" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="Q12" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="R12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="S12" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="T12" t="s">
-        <v>134</v>
+        <v>86</v>
       </c>
       <c r="U12" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="V12" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="W12" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="X12" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="Y12" t="s">
-        <v>136</v>
+        <v>69</v>
       </c>
       <c r="Z12" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="AA12" t="s">
-        <v>137</v>
+        <v>88</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AD12">
         <v>1</v>
       </c>
       <c r="AE12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AF12">
         <v>0</v>
       </c>
       <c r="AG12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH12">
         <v>0</v>
@@ -2291,111 +2588,111 @@
         <v>0</v>
       </c>
       <c r="AK12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL12" t="s">
-        <v>19</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="B13">
+        <v>70</v>
+      </c>
+      <c r="C13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>311</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13" t="s">
+        <v>215</v>
+      </c>
+      <c r="H13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>976</v>
+      </c>
+      <c r="J13" t="s">
+        <v>237</v>
+      </c>
+      <c r="K13" t="s">
+        <v>238</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+      <c r="M13" t="s">
+        <v>218</v>
+      </c>
+      <c r="N13">
+        <v>955</v>
+      </c>
+      <c r="O13" t="s">
+        <v>3</v>
+      </c>
+      <c r="P13" t="s">
         <v>61</v>
       </c>
-      <c r="C13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>4</v>
-      </c>
-      <c r="E13">
-        <v>16</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="s">
-        <v>2</v>
-      </c>
-      <c r="H13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I13">
-        <v>4770</v>
-      </c>
-      <c r="J13" t="s">
-        <v>4</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="Q13" t="s">
+        <v>83</v>
+      </c>
+      <c r="R13" t="s">
+        <v>60</v>
+      </c>
+      <c r="S13" t="s">
+        <v>60</v>
+      </c>
+      <c r="T13" t="s">
+        <v>133</v>
+      </c>
+      <c r="U13" t="s">
+        <v>134</v>
+      </c>
+      <c r="V13" t="s">
+        <v>98</v>
+      </c>
+      <c r="W13" t="s">
+        <v>97</v>
+      </c>
+      <c r="X13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>4</v>
+      </c>
+      <c r="AD13">
+        <v>1</v>
+      </c>
+      <c r="AE13">
         <v>5</v>
       </c>
-      <c r="L13">
-        <v>3</v>
-      </c>
-      <c r="M13" t="s">
-        <v>6</v>
-      </c>
-      <c r="N13">
-        <v>774</v>
-      </c>
-      <c r="O13" t="s">
-        <v>3</v>
-      </c>
-      <c r="P13" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>8</v>
-      </c>
-      <c r="R13" t="s">
-        <v>9</v>
-      </c>
-      <c r="S13" t="s">
-        <v>10</v>
-      </c>
-      <c r="T13" t="s">
-        <v>11</v>
-      </c>
-      <c r="U13" t="s">
-        <v>12</v>
-      </c>
-      <c r="V13" t="s">
-        <v>13</v>
-      </c>
-      <c r="W13" t="s">
-        <v>14</v>
-      </c>
-      <c r="X13" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB13">
-        <v>2</v>
-      </c>
-      <c r="AC13">
-        <v>2</v>
-      </c>
-      <c r="AD13">
-        <v>2</v>
-      </c>
-      <c r="AE13">
-        <v>4</v>
-      </c>
       <c r="AF13">
         <v>0</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH13">
         <v>0</v>
@@ -2410,51 +2707,51 @@
         <v>1</v>
       </c>
       <c r="AL13" t="s">
-        <v>19</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B14">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="F14">
         <v>3</v>
       </c>
       <c r="G14" t="s">
-        <v>2</v>
+        <v>239</v>
       </c>
       <c r="H14" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="I14">
-        <v>812</v>
+        <v>1010</v>
       </c>
       <c r="J14" t="s">
-        <v>22</v>
+        <v>240</v>
       </c>
       <c r="K14" t="s">
-        <v>23</v>
+        <v>241</v>
       </c>
       <c r="L14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M14" t="s">
-        <v>6</v>
+        <v>242</v>
       </c>
       <c r="N14">
-        <v>1123</v>
+        <v>994</v>
       </c>
       <c r="O14" t="s">
         <v>3</v>
@@ -2463,49 +2760,49 @@
         <v>7</v>
       </c>
       <c r="Q14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R14" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="S14" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T14" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="U14" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="V14" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="W14" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="X14" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Y14" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="Z14" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="AA14" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="AB14">
         <v>2</v>
       </c>
       <c r="AC14">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="AD14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE14">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2523,105 +2820,105 @@
         <v>0</v>
       </c>
       <c r="AK14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL14" t="s">
-        <v>19</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>82</v>
+        <v>383</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>243</v>
       </c>
       <c r="H15" t="s">
         <v>3</v>
       </c>
       <c r="I15">
-        <v>4776</v>
+        <v>1022</v>
       </c>
       <c r="J15" t="s">
-        <v>36</v>
+        <v>244</v>
       </c>
       <c r="K15" t="s">
-        <v>37</v>
+        <v>245</v>
       </c>
       <c r="L15">
         <v>2</v>
       </c>
       <c r="M15" t="s">
-        <v>38</v>
+        <v>242</v>
       </c>
       <c r="N15">
-        <v>1129</v>
+        <v>602</v>
       </c>
       <c r="O15" t="s">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="P15" t="s">
         <v>7</v>
       </c>
       <c r="Q15" t="s">
+        <v>7</v>
+      </c>
+      <c r="R15" t="s">
+        <v>23</v>
+      </c>
+      <c r="S15" t="s">
+        <v>24</v>
+      </c>
+      <c r="T15" t="s">
         <v>25</v>
       </c>
-      <c r="R15" t="s">
-        <v>25</v>
-      </c>
-      <c r="S15" t="s">
-        <v>25</v>
-      </c>
-      <c r="T15" t="s">
-        <v>39</v>
-      </c>
       <c r="U15" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="V15" t="s">
+        <v>27</v>
+      </c>
+      <c r="W15" t="s">
+        <v>28</v>
+      </c>
+      <c r="X15" t="s">
         <v>29</v>
       </c>
-      <c r="W15" t="s">
-        <v>29</v>
-      </c>
-      <c r="X15" t="s">
-        <v>41</v>
-      </c>
       <c r="Y15" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="Z15" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="AA15" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AB15">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AC15">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AD15">
         <v>1</v>
       </c>
       <c r="AE15">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2642,102 +2939,102 @@
         <v>0</v>
       </c>
       <c r="AL15" t="s">
-        <v>19</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B16">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E16">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="F16">
         <v>2</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>246</v>
       </c>
       <c r="H16" t="s">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="I16">
-        <v>6</v>
+        <v>623</v>
       </c>
       <c r="J16" t="s">
-        <v>46</v>
+        <v>247</v>
       </c>
       <c r="K16" t="s">
-        <v>47</v>
+        <v>248</v>
       </c>
       <c r="L16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M16" t="s">
+        <v>249</v>
+      </c>
+      <c r="N16">
+        <v>3</v>
+      </c>
+      <c r="O16" t="s">
+        <v>142</v>
+      </c>
+      <c r="P16" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>24</v>
+      </c>
+      <c r="R16" t="s">
+        <v>24</v>
+      </c>
+      <c r="S16" t="s">
+        <v>24</v>
+      </c>
+      <c r="T16" t="s">
         <v>38</v>
       </c>
-      <c r="N16">
-        <v>778</v>
-      </c>
-      <c r="O16" t="s">
-        <v>3</v>
-      </c>
-      <c r="P16" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>25</v>
-      </c>
-      <c r="R16" t="s">
-        <v>25</v>
-      </c>
-      <c r="S16" t="s">
-        <v>25</v>
-      </c>
-      <c r="T16" t="s">
-        <v>48</v>
-      </c>
       <c r="U16" t="s">
+        <v>39</v>
+      </c>
+      <c r="V16" t="s">
+        <v>28</v>
+      </c>
+      <c r="W16" t="s">
+        <v>28</v>
+      </c>
+      <c r="X16" t="s">
         <v>40</v>
       </c>
-      <c r="V16" t="s">
-        <v>49</v>
-      </c>
-      <c r="W16" t="s">
-        <v>49</v>
-      </c>
-      <c r="X16" t="s">
-        <v>50</v>
-      </c>
       <c r="Y16" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Z16" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AA16" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AB16">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AC16">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AD16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE16">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2758,108 +3055,108 @@
         <v>0</v>
       </c>
       <c r="AL16" t="s">
-        <v>19</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B17">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E17">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>55</v>
+        <v>239</v>
       </c>
       <c r="H17" t="s">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="I17">
-        <v>839</v>
+        <v>4</v>
       </c>
       <c r="J17" t="s">
-        <v>56</v>
+        <v>250</v>
       </c>
       <c r="K17" t="s">
-        <v>57</v>
+        <v>251</v>
       </c>
       <c r="L17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M17" t="s">
-        <v>58</v>
+        <v>249</v>
       </c>
       <c r="N17">
-        <v>4651</v>
+        <v>4</v>
       </c>
       <c r="O17" t="s">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="P17" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="Q17" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="R17" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="S17" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="T17" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="U17" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="V17" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="W17" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="X17" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="Y17" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="Z17" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="AA17" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE17">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AF17">
         <v>0</v>
       </c>
       <c r="AG17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH17">
         <v>0</v>
@@ -2871,111 +3168,111 @@
         <v>0</v>
       </c>
       <c r="AK17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL17" t="s">
-        <v>19</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="B18">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E18">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G18" t="s">
-        <v>55</v>
+        <v>243</v>
       </c>
       <c r="H18" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="I18">
-        <v>4676</v>
+        <v>4569</v>
       </c>
       <c r="J18" t="s">
-        <v>72</v>
+        <v>252</v>
       </c>
       <c r="K18" t="s">
-        <v>73</v>
+        <v>253</v>
       </c>
       <c r="L18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M18" t="s">
+        <v>249</v>
+      </c>
+      <c r="N18">
+        <v>998</v>
+      </c>
+      <c r="O18" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" t="s">
         <v>58</v>
       </c>
-      <c r="N18">
-        <v>4650</v>
-      </c>
-      <c r="O18" t="s">
-        <v>21</v>
-      </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
+        <v>59</v>
+      </c>
+      <c r="R18" t="s">
+        <v>60</v>
+      </c>
+      <c r="S18" t="s">
+        <v>61</v>
+      </c>
+      <c r="T18" t="s">
         <v>62</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>60</v>
-      </c>
-      <c r="R18" t="s">
-        <v>74</v>
-      </c>
-      <c r="S18" t="s">
-        <v>74</v>
-      </c>
-      <c r="T18" t="s">
-        <v>75</v>
       </c>
       <c r="U18" t="s">
         <v>63</v>
       </c>
       <c r="V18" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="W18" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="X18" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="Y18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Z18" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="AA18" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="AB18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC18">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE18">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
       </c>
       <c r="AG18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH18">
         <v>0</v>
@@ -2990,340 +3287,340 @@
         <v>1</v>
       </c>
       <c r="AL18" t="s">
-        <v>19</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B19">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G19" t="s">
-        <v>55</v>
+        <v>246</v>
       </c>
       <c r="H19" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="I19">
-        <v>4677</v>
+        <v>4564</v>
       </c>
       <c r="J19" t="s">
-        <v>82</v>
+        <v>254</v>
       </c>
       <c r="K19" t="s">
-        <v>83</v>
+        <v>255</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M19" t="s">
-        <v>58</v>
+        <v>249</v>
       </c>
       <c r="N19">
-        <v>7</v>
+        <v>4547</v>
       </c>
       <c r="O19" t="s">
         <v>3</v>
       </c>
       <c r="P19" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="Q19" t="s">
+        <v>59</v>
+      </c>
+      <c r="R19" t="s">
+        <v>73</v>
+      </c>
+      <c r="S19" t="s">
+        <v>73</v>
+      </c>
+      <c r="T19" t="s">
         <v>74</v>
       </c>
-      <c r="R19" t="s">
-        <v>84</v>
-      </c>
-      <c r="S19" t="s">
-        <v>61</v>
-      </c>
-      <c r="T19" t="s">
-        <v>85</v>
-      </c>
       <c r="U19" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="V19" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="W19" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="X19" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA19" t="s">
         <v>78</v>
       </c>
-      <c r="Y19" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>91</v>
-      </c>
       <c r="AB19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC19">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AD19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE19">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AF19">
         <v>0</v>
       </c>
       <c r="AG19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH19">
         <v>0</v>
       </c>
       <c r="AI19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ19">
         <v>0</v>
       </c>
       <c r="AK19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL19" t="s">
-        <v>19</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B20">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E20">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="F20">
         <v>4</v>
       </c>
       <c r="G20" t="s">
-        <v>2</v>
+        <v>246</v>
       </c>
       <c r="H20" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="I20">
-        <v>4656</v>
+        <v>4563</v>
       </c>
       <c r="J20" t="s">
-        <v>93</v>
+        <v>256</v>
       </c>
       <c r="K20" t="s">
-        <v>94</v>
+        <v>257</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M20" t="s">
-        <v>6</v>
+        <v>249</v>
       </c>
       <c r="N20">
-        <v>3</v>
+        <v>4553</v>
       </c>
       <c r="O20" t="s">
         <v>3</v>
       </c>
       <c r="P20" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="Q20" t="s">
+        <v>73</v>
+      </c>
+      <c r="R20" t="s">
+        <v>83</v>
+      </c>
+      <c r="S20" t="s">
         <v>60</v>
       </c>
-      <c r="R20" t="s">
-        <v>74</v>
-      </c>
-      <c r="S20" t="s">
-        <v>74</v>
-      </c>
       <c r="T20" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="U20" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="V20" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="W20" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="X20" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="Y20" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="Z20" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="AA20" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AB20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AD20">
         <v>2</v>
       </c>
       <c r="AE20">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AF20">
         <v>0</v>
       </c>
       <c r="AG20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH20">
         <v>0</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ20">
         <v>0</v>
       </c>
       <c r="AK20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL20" t="s">
-        <v>19</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B21">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E21">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G21" t="s">
-        <v>2</v>
+        <v>243</v>
       </c>
       <c r="H21" t="s">
         <v>3</v>
       </c>
       <c r="I21">
-        <v>5</v>
+        <v>4570</v>
       </c>
       <c r="J21" t="s">
-        <v>104</v>
+        <v>258</v>
       </c>
       <c r="K21" t="s">
-        <v>105</v>
+        <v>259</v>
       </c>
       <c r="L21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M21" t="s">
+        <v>242</v>
+      </c>
+      <c r="N21">
+        <v>996</v>
+      </c>
+      <c r="O21" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>59</v>
+      </c>
+      <c r="R21" t="s">
+        <v>73</v>
+      </c>
+      <c r="S21" t="s">
+        <v>73</v>
+      </c>
+      <c r="T21" t="s">
+        <v>95</v>
+      </c>
+      <c r="U21" t="s">
+        <v>96</v>
+      </c>
+      <c r="V21" t="s">
+        <v>97</v>
+      </c>
+      <c r="W21" t="s">
+        <v>98</v>
+      </c>
+      <c r="X21" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB21">
+        <v>4</v>
+      </c>
+      <c r="AC21">
+        <v>4</v>
+      </c>
+      <c r="AD21">
+        <v>2</v>
+      </c>
+      <c r="AE21">
         <v>6</v>
       </c>
-      <c r="N21">
-        <v>1122</v>
-      </c>
-      <c r="O21" t="s">
-        <v>3</v>
-      </c>
-      <c r="P21" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>60</v>
-      </c>
-      <c r="R21" t="s">
-        <v>106</v>
-      </c>
-      <c r="S21" t="s">
-        <v>107</v>
-      </c>
-      <c r="T21" t="s">
-        <v>108</v>
-      </c>
-      <c r="U21" t="s">
-        <v>17</v>
-      </c>
-      <c r="V21" t="s">
-        <v>109</v>
-      </c>
-      <c r="W21" t="s">
-        <v>110</v>
-      </c>
-      <c r="X21" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB21">
-        <v>19</v>
-      </c>
-      <c r="AC21">
-        <v>19</v>
-      </c>
-      <c r="AD21">
-        <v>8</v>
-      </c>
-      <c r="AE21">
-        <v>27</v>
-      </c>
       <c r="AF21">
         <v>0</v>
       </c>
       <c r="AG21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AH21">
         <v>0</v>
@@ -3335,111 +3632,111 @@
         <v>0</v>
       </c>
       <c r="AK21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL21" t="s">
-        <v>19</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B22">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E22">
+        <v>75</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22" t="s">
+        <v>243</v>
+      </c>
+      <c r="H22" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <v>1021</v>
+      </c>
+      <c r="J22" t="s">
+        <v>260</v>
+      </c>
+      <c r="K22" t="s">
+        <v>261</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="M22" t="s">
+        <v>242</v>
+      </c>
+      <c r="N22">
+        <v>601</v>
+      </c>
+      <c r="O22" t="s">
+        <v>142</v>
+      </c>
+      <c r="P22" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>59</v>
+      </c>
+      <c r="R22" t="s">
+        <v>105</v>
+      </c>
+      <c r="S22" t="s">
+        <v>106</v>
+      </c>
+      <c r="T22" t="s">
         <v>107</v>
       </c>
-      <c r="F22">
-        <v>3</v>
-      </c>
-      <c r="G22" t="s">
-        <v>55</v>
-      </c>
-      <c r="H22" t="s">
-        <v>21</v>
-      </c>
-      <c r="I22">
-        <v>4678</v>
-      </c>
-      <c r="J22" t="s">
-        <v>115</v>
-      </c>
-      <c r="K22" t="s">
-        <v>116</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22" t="s">
-        <v>58</v>
-      </c>
-      <c r="N22">
+      <c r="U22" t="s">
+        <v>17</v>
+      </c>
+      <c r="V22" t="s">
+        <v>108</v>
+      </c>
+      <c r="W22" t="s">
+        <v>109</v>
+      </c>
+      <c r="X22" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB22">
+        <v>19</v>
+      </c>
+      <c r="AC22">
+        <v>19</v>
+      </c>
+      <c r="AD22">
         <v>8</v>
       </c>
-      <c r="O22" t="s">
-        <v>3</v>
-      </c>
-      <c r="P22" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>60</v>
-      </c>
-      <c r="R22" t="s">
-        <v>60</v>
-      </c>
-      <c r="S22" t="s">
-        <v>60</v>
-      </c>
-      <c r="T22" t="s">
-        <v>117</v>
-      </c>
-      <c r="U22" t="s">
-        <v>118</v>
-      </c>
-      <c r="V22" t="s">
-        <v>119</v>
-      </c>
-      <c r="W22" t="s">
-        <v>120</v>
-      </c>
-      <c r="X22" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>122</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB22">
-        <v>0</v>
-      </c>
-      <c r="AC22">
-        <v>1</v>
-      </c>
-      <c r="AD22">
-        <v>0</v>
-      </c>
       <c r="AE22">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="AF22">
         <v>0</v>
       </c>
       <c r="AG22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH22">
         <v>0</v>
@@ -3454,108 +3751,108 @@
         <v>0</v>
       </c>
       <c r="AL22" t="s">
-        <v>19</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="B23">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E23">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G23" t="s">
-        <v>35</v>
+        <v>246</v>
       </c>
       <c r="H23" t="s">
         <v>3</v>
       </c>
       <c r="I23">
-        <v>5</v>
+        <v>1015</v>
       </c>
       <c r="J23" t="s">
-        <v>125</v>
+        <v>262</v>
       </c>
       <c r="K23" t="s">
-        <v>126</v>
+        <v>263</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M23" t="s">
-        <v>38</v>
+        <v>249</v>
       </c>
       <c r="N23">
-        <v>5</v>
+        <v>608</v>
       </c>
       <c r="O23" t="s">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="P23" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="Q23" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="R23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S23" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="T23" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="U23" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="V23" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="W23" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="X23" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="Y23" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="Z23" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="AA23" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="AB23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF23">
         <v>0</v>
       </c>
       <c r="AG23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH23">
         <v>0</v>
@@ -3570,123 +3867,3023 @@
         <v>0</v>
       </c>
       <c r="AL23" t="s">
-        <v>19</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24">
+        <v>69</v>
+      </c>
+      <c r="C24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>100</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24" t="s">
+        <v>239</v>
+      </c>
+      <c r="H24" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <v>4558</v>
+      </c>
+      <c r="J24" t="s">
+        <v>264</v>
+      </c>
+      <c r="K24" t="s">
+        <v>265</v>
+      </c>
+      <c r="L24">
+        <v>4</v>
+      </c>
+      <c r="M24" t="s">
+        <v>249</v>
+      </c>
+      <c r="N24">
+        <v>4552</v>
+      </c>
+      <c r="O24" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>105</v>
+      </c>
+      <c r="R24" t="s">
+        <v>59</v>
+      </c>
+      <c r="S24" t="s">
+        <v>73</v>
+      </c>
+      <c r="T24" t="s">
+        <v>86</v>
+      </c>
+      <c r="U24" t="s">
+        <v>126</v>
+      </c>
+      <c r="V24" t="s">
+        <v>127</v>
+      </c>
+      <c r="W24" t="s">
+        <v>128</v>
+      </c>
+      <c r="X24" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB24">
+        <v>1</v>
+      </c>
+      <c r="AC24">
+        <v>2</v>
+      </c>
+      <c r="AD24">
+        <v>1</v>
+      </c>
+      <c r="AE24">
+        <v>3</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>1</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25">
+        <v>70</v>
+      </c>
+      <c r="C25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>125</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25" t="s">
+        <v>239</v>
+      </c>
+      <c r="H25" t="s">
+        <v>3</v>
+      </c>
+      <c r="I25">
+        <v>4557</v>
+      </c>
+      <c r="J25" t="s">
+        <v>266</v>
+      </c>
+      <c r="K25" t="s">
+        <v>267</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25" t="s">
+        <v>249</v>
+      </c>
+      <c r="N25">
+        <v>6</v>
+      </c>
+      <c r="O25" t="s">
+        <v>142</v>
+      </c>
+      <c r="P25" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>83</v>
+      </c>
+      <c r="R25" t="s">
+        <v>60</v>
+      </c>
+      <c r="S25" t="s">
+        <v>60</v>
+      </c>
+      <c r="T25" t="s">
+        <v>133</v>
+      </c>
+      <c r="U25" t="s">
+        <v>134</v>
+      </c>
+      <c r="V25" t="s">
+        <v>98</v>
+      </c>
+      <c r="W25" t="s">
+        <v>97</v>
+      </c>
+      <c r="X25" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>4</v>
+      </c>
+      <c r="AD25">
+        <v>1</v>
+      </c>
+      <c r="AE25">
+        <v>5</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>3</v>
+      </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>1</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>61</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>48</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26" t="s">
+        <v>137</v>
+      </c>
+      <c r="H26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I26">
+        <v>717</v>
+      </c>
+      <c r="J26" t="s">
+        <v>139</v>
+      </c>
+      <c r="K26" t="s">
+        <v>140</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26" t="s">
+        <v>141</v>
+      </c>
+      <c r="N26">
+        <v>6</v>
+      </c>
+      <c r="O26" t="s">
+        <v>142</v>
+      </c>
+      <c r="P26" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>8</v>
+      </c>
+      <c r="R26" t="s">
+        <v>9</v>
+      </c>
+      <c r="S26" t="s">
+        <v>10</v>
+      </c>
+      <c r="T26" t="s">
+        <v>11</v>
+      </c>
+      <c r="U26" t="s">
+        <v>12</v>
+      </c>
+      <c r="V26" t="s">
+        <v>13</v>
+      </c>
+      <c r="W26" t="s">
+        <v>14</v>
+      </c>
+      <c r="X26" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB26">
+        <v>2</v>
+      </c>
+      <c r="AC26">
+        <v>2</v>
+      </c>
+      <c r="AD26">
+        <v>2</v>
+      </c>
+      <c r="AE26">
+        <v>4</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>1</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27">
+        <v>62</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>36</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27" t="s">
+        <v>137</v>
+      </c>
+      <c r="H27" t="s">
+        <v>3</v>
+      </c>
+      <c r="I27">
+        <v>4620</v>
+      </c>
+      <c r="J27" t="s">
+        <v>143</v>
+      </c>
+      <c r="K27" t="s">
+        <v>144</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27" t="s">
+        <v>141</v>
+      </c>
+      <c r="N27">
+        <v>4</v>
+      </c>
+      <c r="O27" t="s">
+        <v>142</v>
+      </c>
+      <c r="P27" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>7</v>
+      </c>
+      <c r="R27" t="s">
+        <v>23</v>
+      </c>
+      <c r="S27" t="s">
+        <v>24</v>
+      </c>
+      <c r="T27" t="s">
+        <v>25</v>
+      </c>
+      <c r="U27" t="s">
+        <v>26</v>
+      </c>
+      <c r="V27" t="s">
+        <v>27</v>
+      </c>
+      <c r="W27" t="s">
+        <v>28</v>
+      </c>
+      <c r="X27" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB27">
+        <v>2</v>
+      </c>
+      <c r="AC27">
+        <v>13</v>
+      </c>
+      <c r="AD27">
+        <v>1</v>
+      </c>
+      <c r="AE27">
+        <v>14</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>64</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>6</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>145</v>
+      </c>
+      <c r="H28" t="s">
+        <v>142</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+      <c r="J28" t="s">
+        <v>146</v>
+      </c>
+      <c r="K28" t="s">
+        <v>147</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28" t="s">
+        <v>148</v>
+      </c>
+      <c r="N28">
+        <v>701</v>
+      </c>
+      <c r="O28" t="s">
+        <v>138</v>
+      </c>
+      <c r="P28" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>24</v>
+      </c>
+      <c r="R28" t="s">
+        <v>24</v>
+      </c>
+      <c r="S28" t="s">
+        <v>24</v>
+      </c>
+      <c r="T28" t="s">
+        <v>38</v>
+      </c>
+      <c r="U28" t="s">
+        <v>39</v>
+      </c>
+      <c r="V28" t="s">
+        <v>28</v>
+      </c>
+      <c r="W28" t="s">
+        <v>28</v>
+      </c>
+      <c r="X28" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB28">
+        <v>8</v>
+      </c>
+      <c r="AC28">
+        <v>10</v>
+      </c>
+      <c r="AD28">
+        <v>1</v>
+      </c>
+      <c r="AE28">
+        <v>11</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
+      </c>
+      <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29">
+        <v>63</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>218</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>145</v>
+      </c>
+      <c r="H29" t="s">
+        <v>142</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29" t="s">
+        <v>149</v>
+      </c>
+      <c r="K29" t="s">
+        <v>150</v>
+      </c>
+      <c r="L29">
+        <v>4</v>
+      </c>
+      <c r="M29" t="s">
+        <v>148</v>
+      </c>
+      <c r="N29">
+        <v>4609</v>
+      </c>
+      <c r="O29" t="s">
+        <v>3</v>
+      </c>
+      <c r="P29" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>24</v>
+      </c>
+      <c r="R29" t="s">
+        <v>24</v>
+      </c>
+      <c r="S29" t="s">
+        <v>24</v>
+      </c>
+      <c r="T29" t="s">
+        <v>47</v>
+      </c>
+      <c r="U29" t="s">
+        <v>39</v>
+      </c>
+      <c r="V29" t="s">
+        <v>48</v>
+      </c>
+      <c r="W29" t="s">
+        <v>48</v>
+      </c>
+      <c r="X29" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB29">
+        <v>4</v>
+      </c>
+      <c r="AC29">
+        <v>12</v>
+      </c>
+      <c r="AD29">
+        <v>2</v>
+      </c>
+      <c r="AE29">
+        <v>14</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30">
+        <v>66</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>92</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30" t="s">
+        <v>151</v>
+      </c>
+      <c r="H30" t="s">
+        <v>142</v>
+      </c>
+      <c r="I30">
+        <v>7</v>
+      </c>
+      <c r="J30" t="s">
+        <v>152</v>
+      </c>
+      <c r="K30" t="s">
+        <v>153</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30" t="s">
+        <v>154</v>
+      </c>
+      <c r="N30">
+        <v>5</v>
+      </c>
+      <c r="O30" t="s">
+        <v>138</v>
+      </c>
+      <c r="P30" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>59</v>
+      </c>
+      <c r="R30" t="s">
+        <v>60</v>
+      </c>
+      <c r="S30" t="s">
+        <v>61</v>
+      </c>
+      <c r="T30" t="s">
+        <v>62</v>
+      </c>
+      <c r="U30" t="s">
+        <v>63</v>
+      </c>
+      <c r="V30" t="s">
+        <v>64</v>
+      </c>
+      <c r="W30" t="s">
+        <v>65</v>
+      </c>
+      <c r="X30" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>2</v>
+      </c>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
+      </c>
+      <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>1</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31">
+        <v>65</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>162</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31" t="s">
+        <v>151</v>
+      </c>
+      <c r="H31" t="s">
+        <v>142</v>
+      </c>
+      <c r="I31">
+        <v>5</v>
+      </c>
+      <c r="J31" t="s">
+        <v>155</v>
+      </c>
+      <c r="K31" t="s">
+        <v>156</v>
+      </c>
+      <c r="L31">
+        <v>2</v>
+      </c>
+      <c r="M31" t="s">
+        <v>154</v>
+      </c>
+      <c r="N31">
+        <v>708</v>
+      </c>
+      <c r="O31" t="s">
+        <v>138</v>
+      </c>
+      <c r="P31" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>59</v>
+      </c>
+      <c r="R31" t="s">
+        <v>73</v>
+      </c>
+      <c r="S31" t="s">
+        <v>73</v>
+      </c>
+      <c r="T31" t="s">
+        <v>74</v>
+      </c>
+      <c r="U31" t="s">
+        <v>62</v>
+      </c>
+      <c r="V31" t="s">
+        <v>75</v>
+      </c>
+      <c r="W31" t="s">
+        <v>75</v>
+      </c>
+      <c r="X31" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB31">
+        <v>4</v>
+      </c>
+      <c r="AC31">
+        <v>8</v>
+      </c>
+      <c r="AD31">
+        <v>3</v>
+      </c>
+      <c r="AE31">
+        <v>11</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
+      </c>
+      <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>1</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32">
+        <v>71</v>
+      </c>
+      <c r="C32" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>211</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>151</v>
+      </c>
+      <c r="H32" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32">
+        <v>4633</v>
+      </c>
+      <c r="J32" t="s">
+        <v>157</v>
+      </c>
+      <c r="K32" t="s">
+        <v>158</v>
+      </c>
+      <c r="L32">
+        <v>4</v>
+      </c>
+      <c r="M32" t="s">
+        <v>154</v>
+      </c>
+      <c r="N32">
+        <v>4614</v>
+      </c>
+      <c r="O32" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>73</v>
+      </c>
+      <c r="R32" t="s">
+        <v>83</v>
+      </c>
+      <c r="S32" t="s">
+        <v>60</v>
+      </c>
+      <c r="T32" t="s">
+        <v>84</v>
+      </c>
+      <c r="U32" t="s">
+        <v>85</v>
+      </c>
+      <c r="V32" t="s">
+        <v>86</v>
+      </c>
+      <c r="W32" t="s">
+        <v>87</v>
+      </c>
+      <c r="X32" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>2</v>
+      </c>
+      <c r="AD32">
+        <v>2</v>
+      </c>
+      <c r="AE32">
+        <v>4</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>2</v>
+      </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>1</v>
+      </c>
+      <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="33" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33">
+        <v>68</v>
+      </c>
+      <c r="C33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>37</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>137</v>
+      </c>
+      <c r="H33" t="s">
+        <v>138</v>
+      </c>
+      <c r="I33">
+        <v>6</v>
+      </c>
+      <c r="J33" t="s">
+        <v>159</v>
+      </c>
+      <c r="K33" t="s">
+        <v>160</v>
+      </c>
+      <c r="L33">
+        <v>4</v>
+      </c>
+      <c r="M33" t="s">
+        <v>141</v>
+      </c>
+      <c r="N33">
+        <v>4603</v>
+      </c>
+      <c r="O33" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>59</v>
+      </c>
+      <c r="R33" t="s">
+        <v>73</v>
+      </c>
+      <c r="S33" t="s">
+        <v>73</v>
+      </c>
+      <c r="T33" t="s">
+        <v>95</v>
+      </c>
+      <c r="U33" t="s">
+        <v>96</v>
+      </c>
+      <c r="V33" t="s">
+        <v>97</v>
+      </c>
+      <c r="W33" t="s">
+        <v>98</v>
+      </c>
+      <c r="X33" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB33">
+        <v>4</v>
+      </c>
+      <c r="AC33">
+        <v>4</v>
+      </c>
+      <c r="AD33">
+        <v>2</v>
+      </c>
+      <c r="AE33">
+        <v>6</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
+      <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>1</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="34" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34">
+        <v>67</v>
+      </c>
+      <c r="C34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>10</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>137</v>
+      </c>
+      <c r="H34" t="s">
+        <v>138</v>
+      </c>
+      <c r="I34">
+        <v>5</v>
+      </c>
+      <c r="J34" t="s">
+        <v>161</v>
+      </c>
+      <c r="K34" t="s">
+        <v>162</v>
+      </c>
+      <c r="L34">
+        <v>4</v>
+      </c>
+      <c r="M34" t="s">
+        <v>141</v>
+      </c>
+      <c r="N34">
+        <v>4602</v>
+      </c>
+      <c r="O34" t="s">
+        <v>3</v>
+      </c>
+      <c r="P34" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>59</v>
+      </c>
+      <c r="R34" t="s">
+        <v>105</v>
+      </c>
+      <c r="S34" t="s">
+        <v>106</v>
+      </c>
+      <c r="T34" t="s">
+        <v>107</v>
+      </c>
+      <c r="U34" t="s">
+        <v>17</v>
+      </c>
+      <c r="V34" t="s">
+        <v>108</v>
+      </c>
+      <c r="W34" t="s">
+        <v>109</v>
+      </c>
+      <c r="X34" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB34">
+        <v>19</v>
+      </c>
+      <c r="AC34">
+        <v>19</v>
+      </c>
+      <c r="AD34">
+        <v>8</v>
+      </c>
+      <c r="AE34">
+        <v>27</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>3</v>
+      </c>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="35" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35">
+        <v>72</v>
+      </c>
+      <c r="C35" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>96</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
+        <v>151</v>
+      </c>
+      <c r="H35" t="s">
+        <v>142</v>
+      </c>
+      <c r="I35">
+        <v>766</v>
+      </c>
+      <c r="J35" t="s">
+        <v>163</v>
+      </c>
+      <c r="K35" t="s">
+        <v>164</v>
+      </c>
+      <c r="L35">
+        <v>4</v>
+      </c>
+      <c r="M35" t="s">
+        <v>154</v>
+      </c>
+      <c r="N35">
+        <v>4615</v>
+      </c>
+      <c r="O35" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>59</v>
+      </c>
+      <c r="R35" t="s">
+        <v>59</v>
+      </c>
+      <c r="S35" t="s">
+        <v>59</v>
+      </c>
+      <c r="T35" t="s">
+        <v>116</v>
+      </c>
+      <c r="U35" t="s">
+        <v>117</v>
+      </c>
+      <c r="V35" t="s">
+        <v>118</v>
+      </c>
+      <c r="W35" t="s">
+        <v>119</v>
+      </c>
+      <c r="X35" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>1</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>1</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>2</v>
+      </c>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="36" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>123</v>
+      </c>
+      <c r="B36">
+        <v>69</v>
+      </c>
+      <c r="C36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <v>16</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36" t="s">
+        <v>145</v>
+      </c>
+      <c r="H36" t="s">
+        <v>3</v>
+      </c>
+      <c r="I36">
+        <v>1111</v>
+      </c>
+      <c r="J36" t="s">
+        <v>165</v>
+      </c>
+      <c r="K36" t="s">
+        <v>166</v>
+      </c>
+      <c r="L36">
+        <v>4</v>
+      </c>
+      <c r="M36" t="s">
+        <v>148</v>
+      </c>
+      <c r="N36">
+        <v>4607</v>
+      </c>
+      <c r="O36" t="s">
+        <v>3</v>
+      </c>
+      <c r="P36" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>105</v>
+      </c>
+      <c r="R36" t="s">
+        <v>59</v>
+      </c>
+      <c r="S36" t="s">
+        <v>73</v>
+      </c>
+      <c r="T36" t="s">
+        <v>86</v>
+      </c>
+      <c r="U36" t="s">
+        <v>126</v>
+      </c>
+      <c r="V36" t="s">
+        <v>127</v>
+      </c>
+      <c r="W36" t="s">
+        <v>128</v>
+      </c>
+      <c r="X36" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB36">
+        <v>1</v>
+      </c>
+      <c r="AC36">
+        <v>2</v>
+      </c>
+      <c r="AD36">
+        <v>1</v>
+      </c>
+      <c r="AE36">
+        <v>3</v>
+      </c>
+      <c r="AF36">
+        <v>0</v>
+      </c>
+      <c r="AG36">
+        <v>1</v>
+      </c>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
+      </c>
+      <c r="AJ36">
+        <v>0</v>
+      </c>
+      <c r="AK36">
+        <v>0</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="37" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>130</v>
+      </c>
+      <c r="B37">
+        <v>70</v>
+      </c>
+      <c r="C37" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>18</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37" t="s">
+        <v>145</v>
+      </c>
+      <c r="H37" t="s">
+        <v>142</v>
+      </c>
+      <c r="I37">
+        <v>723</v>
+      </c>
+      <c r="J37" t="s">
+        <v>167</v>
+      </c>
+      <c r="K37" t="s">
+        <v>168</v>
+      </c>
+      <c r="L37">
+        <v>3</v>
+      </c>
+      <c r="M37" t="s">
+        <v>148</v>
+      </c>
+      <c r="N37">
+        <v>1092</v>
+      </c>
+      <c r="O37" t="s">
+        <v>3</v>
+      </c>
+      <c r="P37" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>83</v>
+      </c>
+      <c r="R37" t="s">
+        <v>60</v>
+      </c>
+      <c r="S37" t="s">
+        <v>60</v>
+      </c>
+      <c r="T37" t="s">
+        <v>133</v>
+      </c>
+      <c r="U37" t="s">
+        <v>134</v>
+      </c>
+      <c r="V37" t="s">
+        <v>98</v>
+      </c>
+      <c r="W37" t="s">
+        <v>97</v>
+      </c>
+      <c r="X37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+      <c r="AC37">
+        <v>4</v>
+      </c>
+      <c r="AD37">
+        <v>1</v>
+      </c>
+      <c r="AE37">
+        <v>5</v>
+      </c>
+      <c r="AF37">
+        <v>0</v>
+      </c>
+      <c r="AG37">
+        <v>3</v>
+      </c>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
+      </c>
+      <c r="AJ37">
+        <v>0</v>
+      </c>
+      <c r="AK37">
+        <v>1</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="38" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>61</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <v>16</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="s">
+        <v>2</v>
+      </c>
+      <c r="H38" t="s">
+        <v>3</v>
+      </c>
+      <c r="I38">
+        <v>4770</v>
+      </c>
+      <c r="J38" t="s">
+        <v>4</v>
+      </c>
+      <c r="K38" t="s">
+        <v>5</v>
+      </c>
+      <c r="L38">
+        <v>3</v>
+      </c>
+      <c r="M38" t="s">
+        <v>6</v>
+      </c>
+      <c r="N38">
+        <v>774</v>
+      </c>
+      <c r="O38" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>8</v>
+      </c>
+      <c r="R38" t="s">
+        <v>9</v>
+      </c>
+      <c r="S38" t="s">
+        <v>10</v>
+      </c>
+      <c r="T38" t="s">
+        <v>11</v>
+      </c>
+      <c r="U38" t="s">
+        <v>12</v>
+      </c>
+      <c r="V38" t="s">
+        <v>13</v>
+      </c>
+      <c r="W38" t="s">
+        <v>14</v>
+      </c>
+      <c r="X38" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB38">
+        <v>2</v>
+      </c>
+      <c r="AC38">
+        <v>2</v>
+      </c>
+      <c r="AD38">
+        <v>2</v>
+      </c>
+      <c r="AE38">
+        <v>4</v>
+      </c>
+      <c r="AF38">
+        <v>0</v>
+      </c>
+      <c r="AG38">
+        <v>0</v>
+      </c>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
+      </c>
+      <c r="AJ38">
+        <v>0</v>
+      </c>
+      <c r="AK38">
+        <v>1</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="39" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39">
+        <v>62</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="E39">
+        <v>94</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="G39" t="s">
+        <v>2</v>
+      </c>
+      <c r="H39" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39">
+        <v>812</v>
+      </c>
+      <c r="J39" t="s">
+        <v>21</v>
+      </c>
+      <c r="K39" t="s">
+        <v>22</v>
+      </c>
+      <c r="L39">
+        <v>2</v>
+      </c>
+      <c r="M39" t="s">
+        <v>6</v>
+      </c>
+      <c r="N39">
+        <v>1123</v>
+      </c>
+      <c r="O39" t="s">
+        <v>3</v>
+      </c>
+      <c r="P39" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>7</v>
+      </c>
+      <c r="R39" t="s">
+        <v>23</v>
+      </c>
+      <c r="S39" t="s">
+        <v>24</v>
+      </c>
+      <c r="T39" t="s">
+        <v>25</v>
+      </c>
+      <c r="U39" t="s">
+        <v>26</v>
+      </c>
+      <c r="V39" t="s">
+        <v>27</v>
+      </c>
+      <c r="W39" t="s">
+        <v>28</v>
+      </c>
+      <c r="X39" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB39">
+        <v>2</v>
+      </c>
+      <c r="AC39">
+        <v>13</v>
+      </c>
+      <c r="AD39">
+        <v>1</v>
+      </c>
+      <c r="AE39">
+        <v>14</v>
+      </c>
+      <c r="AF39">
+        <v>0</v>
+      </c>
+      <c r="AG39">
+        <v>0</v>
+      </c>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
+      </c>
+      <c r="AJ39">
+        <v>0</v>
+      </c>
+      <c r="AK39">
+        <v>0</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="40" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40">
+        <v>64</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <v>82</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="s">
+        <v>34</v>
+      </c>
+      <c r="H40" t="s">
+        <v>3</v>
+      </c>
+      <c r="I40">
+        <v>4776</v>
+      </c>
+      <c r="J40" t="s">
+        <v>35</v>
+      </c>
+      <c r="K40" t="s">
+        <v>36</v>
+      </c>
+      <c r="L40">
+        <v>2</v>
+      </c>
+      <c r="M40" t="s">
+        <v>37</v>
+      </c>
+      <c r="N40">
+        <v>1129</v>
+      </c>
+      <c r="O40" t="s">
+        <v>3</v>
+      </c>
+      <c r="P40" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>24</v>
+      </c>
+      <c r="R40" t="s">
+        <v>24</v>
+      </c>
+      <c r="S40" t="s">
+        <v>24</v>
+      </c>
+      <c r="T40" t="s">
+        <v>38</v>
+      </c>
+      <c r="U40" t="s">
+        <v>39</v>
+      </c>
+      <c r="V40" t="s">
+        <v>28</v>
+      </c>
+      <c r="W40" t="s">
+        <v>28</v>
+      </c>
+      <c r="X40" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB40">
+        <v>8</v>
+      </c>
+      <c r="AC40">
+        <v>10</v>
+      </c>
+      <c r="AD40">
+        <v>1</v>
+      </c>
+      <c r="AE40">
+        <v>11</v>
+      </c>
+      <c r="AF40">
+        <v>0</v>
+      </c>
+      <c r="AG40">
+        <v>0</v>
+      </c>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
+      </c>
+      <c r="AJ40">
+        <v>0</v>
+      </c>
+      <c r="AK40">
+        <v>0</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="41" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41">
+        <v>63</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <v>21</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41" t="s">
+        <v>34</v>
+      </c>
+      <c r="H41" t="s">
+        <v>3</v>
+      </c>
+      <c r="I41">
+        <v>6</v>
+      </c>
+      <c r="J41" t="s">
+        <v>45</v>
+      </c>
+      <c r="K41" t="s">
+        <v>46</v>
+      </c>
+      <c r="L41">
+        <v>3</v>
+      </c>
+      <c r="M41" t="s">
+        <v>37</v>
+      </c>
+      <c r="N41">
+        <v>778</v>
+      </c>
+      <c r="O41" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>24</v>
+      </c>
+      <c r="R41" t="s">
+        <v>24</v>
+      </c>
+      <c r="S41" t="s">
+        <v>24</v>
+      </c>
+      <c r="T41" t="s">
+        <v>47</v>
+      </c>
+      <c r="U41" t="s">
+        <v>39</v>
+      </c>
+      <c r="V41" t="s">
+        <v>48</v>
+      </c>
+      <c r="W41" t="s">
+        <v>48</v>
+      </c>
+      <c r="X41" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB41">
+        <v>4</v>
+      </c>
+      <c r="AC41">
+        <v>12</v>
+      </c>
+      <c r="AD41">
+        <v>2</v>
+      </c>
+      <c r="AE41">
+        <v>14</v>
+      </c>
+      <c r="AF41">
+        <v>0</v>
+      </c>
+      <c r="AG41">
+        <v>0</v>
+      </c>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
+      </c>
+      <c r="AJ41">
+        <v>0</v>
+      </c>
+      <c r="AK41">
+        <v>0</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="42" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42">
+        <v>66</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>4</v>
+      </c>
+      <c r="E42">
+        <v>21</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42" t="s">
+        <v>54</v>
+      </c>
+      <c r="H42" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42">
+        <v>839</v>
+      </c>
+      <c r="J42" t="s">
+        <v>55</v>
+      </c>
+      <c r="K42" t="s">
+        <v>56</v>
+      </c>
+      <c r="L42">
+        <v>4</v>
+      </c>
+      <c r="M42" t="s">
+        <v>57</v>
+      </c>
+      <c r="N42">
+        <v>4651</v>
+      </c>
+      <c r="O42" t="s">
+        <v>20</v>
+      </c>
+      <c r="P42" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>59</v>
+      </c>
+      <c r="R42" t="s">
+        <v>60</v>
+      </c>
+      <c r="S42" t="s">
+        <v>61</v>
+      </c>
+      <c r="T42" t="s">
+        <v>62</v>
+      </c>
+      <c r="U42" t="s">
+        <v>63</v>
+      </c>
+      <c r="V42" t="s">
+        <v>64</v>
+      </c>
+      <c r="W42" t="s">
+        <v>65</v>
+      </c>
+      <c r="X42" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB42">
+        <v>0</v>
+      </c>
+      <c r="AC42">
+        <v>0</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
+      </c>
+      <c r="AF42">
+        <v>0</v>
+      </c>
+      <c r="AG42">
+        <v>2</v>
+      </c>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
+      </c>
+      <c r="AJ42">
+        <v>0</v>
+      </c>
+      <c r="AK42">
+        <v>1</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="43" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43">
+        <v>65</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>4</v>
+      </c>
+      <c r="E43">
+        <v>20</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+      <c r="G43" t="s">
+        <v>54</v>
+      </c>
+      <c r="H43" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43">
+        <v>4676</v>
+      </c>
+      <c r="J43" t="s">
+        <v>71</v>
+      </c>
+      <c r="K43" t="s">
+        <v>72</v>
+      </c>
+      <c r="L43">
+        <v>4</v>
+      </c>
+      <c r="M43" t="s">
+        <v>57</v>
+      </c>
+      <c r="N43">
+        <v>4650</v>
+      </c>
+      <c r="O43" t="s">
+        <v>20</v>
+      </c>
+      <c r="P43" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>59</v>
+      </c>
+      <c r="R43" t="s">
+        <v>73</v>
+      </c>
+      <c r="S43" t="s">
+        <v>73</v>
+      </c>
+      <c r="T43" t="s">
+        <v>74</v>
+      </c>
+      <c r="U43" t="s">
+        <v>62</v>
+      </c>
+      <c r="V43" t="s">
+        <v>75</v>
+      </c>
+      <c r="W43" t="s">
+        <v>75</v>
+      </c>
+      <c r="X43" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB43">
+        <v>4</v>
+      </c>
+      <c r="AC43">
+        <v>8</v>
+      </c>
+      <c r="AD43">
+        <v>3</v>
+      </c>
+      <c r="AE43">
+        <v>11</v>
+      </c>
+      <c r="AF43">
+        <v>0</v>
+      </c>
+      <c r="AG43">
+        <v>0</v>
+      </c>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
+      </c>
+      <c r="AJ43">
+        <v>0</v>
+      </c>
+      <c r="AK43">
+        <v>1</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="44" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44">
+        <v>71</v>
+      </c>
+      <c r="C44" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44">
+        <v>66</v>
+      </c>
+      <c r="F44">
+        <v>3</v>
+      </c>
+      <c r="G44" t="s">
+        <v>54</v>
+      </c>
+      <c r="H44" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44">
+        <v>4677</v>
+      </c>
+      <c r="J44" t="s">
+        <v>81</v>
+      </c>
+      <c r="K44" t="s">
+        <v>82</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44" t="s">
+        <v>57</v>
+      </c>
+      <c r="N44">
+        <v>7</v>
+      </c>
+      <c r="O44" t="s">
+        <v>3</v>
+      </c>
+      <c r="P44" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>73</v>
+      </c>
+      <c r="R44" t="s">
+        <v>83</v>
+      </c>
+      <c r="S44" t="s">
+        <v>60</v>
+      </c>
+      <c r="T44" t="s">
+        <v>84</v>
+      </c>
+      <c r="U44" t="s">
+        <v>85</v>
+      </c>
+      <c r="V44" t="s">
+        <v>86</v>
+      </c>
+      <c r="W44" t="s">
+        <v>87</v>
+      </c>
+      <c r="X44" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
+      <c r="AC44">
+        <v>2</v>
+      </c>
+      <c r="AD44">
+        <v>2</v>
+      </c>
+      <c r="AE44">
+        <v>4</v>
+      </c>
+      <c r="AF44">
+        <v>0</v>
+      </c>
+      <c r="AG44">
+        <v>2</v>
+      </c>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>1</v>
+      </c>
+      <c r="AJ44">
+        <v>0</v>
+      </c>
+      <c r="AK44">
+        <v>0</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="45" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45">
+        <v>68</v>
+      </c>
+      <c r="C45" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <v>21</v>
+      </c>
+      <c r="F45">
+        <v>4</v>
+      </c>
+      <c r="G45" t="s">
+        <v>2</v>
+      </c>
+      <c r="H45" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45">
+        <v>4656</v>
+      </c>
+      <c r="J45" t="s">
+        <v>92</v>
+      </c>
+      <c r="K45" t="s">
+        <v>93</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45" t="s">
+        <v>6</v>
+      </c>
+      <c r="N45">
+        <v>3</v>
+      </c>
+      <c r="O45" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>59</v>
+      </c>
+      <c r="R45" t="s">
+        <v>73</v>
+      </c>
+      <c r="S45" t="s">
+        <v>73</v>
+      </c>
+      <c r="T45" t="s">
+        <v>95</v>
+      </c>
+      <c r="U45" t="s">
+        <v>96</v>
+      </c>
+      <c r="V45" t="s">
+        <v>97</v>
+      </c>
+      <c r="W45" t="s">
+        <v>98</v>
+      </c>
+      <c r="X45" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB45">
+        <v>4</v>
+      </c>
+      <c r="AC45">
+        <v>4</v>
+      </c>
+      <c r="AD45">
+        <v>2</v>
+      </c>
+      <c r="AE45">
+        <v>6</v>
+      </c>
+      <c r="AF45">
+        <v>0</v>
+      </c>
+      <c r="AG45">
+        <v>0</v>
+      </c>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
+      </c>
+      <c r="AJ45">
+        <v>0</v>
+      </c>
+      <c r="AK45">
+        <v>1</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="46" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>102</v>
+      </c>
+      <c r="B46">
+        <v>67</v>
+      </c>
+      <c r="C46" t="s">
+        <v>80</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
+      </c>
+      <c r="E46">
+        <v>7</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46" t="s">
+        <v>2</v>
+      </c>
+      <c r="H46" t="s">
+        <v>3</v>
+      </c>
+      <c r="I46">
+        <v>5</v>
+      </c>
+      <c r="J46" t="s">
+        <v>103</v>
+      </c>
+      <c r="K46" t="s">
+        <v>104</v>
+      </c>
+      <c r="L46">
+        <v>2</v>
+      </c>
+      <c r="M46" t="s">
+        <v>6</v>
+      </c>
+      <c r="N46">
+        <v>1122</v>
+      </c>
+      <c r="O46" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>59</v>
+      </c>
+      <c r="R46" t="s">
+        <v>105</v>
+      </c>
+      <c r="S46" t="s">
+        <v>106</v>
+      </c>
+      <c r="T46" t="s">
+        <v>107</v>
+      </c>
+      <c r="U46" t="s">
+        <v>17</v>
+      </c>
+      <c r="V46" t="s">
+        <v>108</v>
+      </c>
+      <c r="W46" t="s">
+        <v>109</v>
+      </c>
+      <c r="X46" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB46">
+        <v>19</v>
+      </c>
+      <c r="AC46">
+        <v>19</v>
+      </c>
+      <c r="AD46">
+        <v>8</v>
+      </c>
+      <c r="AE46">
+        <v>27</v>
+      </c>
+      <c r="AF46">
+        <v>0</v>
+      </c>
+      <c r="AG46">
+        <v>3</v>
+      </c>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
+      </c>
+      <c r="AJ46">
+        <v>0</v>
+      </c>
+      <c r="AK46">
+        <v>0</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="47" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47">
+        <v>72</v>
+      </c>
+      <c r="C47" t="s">
+        <v>80</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47">
+        <v>107</v>
+      </c>
+      <c r="F47">
+        <v>3</v>
+      </c>
+      <c r="G47" t="s">
+        <v>54</v>
+      </c>
+      <c r="H47" t="s">
+        <v>20</v>
+      </c>
+      <c r="I47">
+        <v>4678</v>
+      </c>
+      <c r="J47" t="s">
+        <v>114</v>
+      </c>
+      <c r="K47" t="s">
+        <v>115</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47" t="s">
+        <v>57</v>
+      </c>
+      <c r="N47">
+        <v>8</v>
+      </c>
+      <c r="O47" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>59</v>
+      </c>
+      <c r="R47" t="s">
+        <v>59</v>
+      </c>
+      <c r="S47" t="s">
+        <v>59</v>
+      </c>
+      <c r="T47" t="s">
+        <v>116</v>
+      </c>
+      <c r="U47" t="s">
+        <v>117</v>
+      </c>
+      <c r="V47" t="s">
+        <v>118</v>
+      </c>
+      <c r="W47" t="s">
+        <v>119</v>
+      </c>
+      <c r="X47" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB47">
+        <v>0</v>
+      </c>
+      <c r="AC47">
+        <v>1</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>1</v>
+      </c>
+      <c r="AF47">
+        <v>0</v>
+      </c>
+      <c r="AG47">
+        <v>2</v>
+      </c>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
+      </c>
+      <c r="AJ47">
+        <v>0</v>
+      </c>
+      <c r="AK47">
+        <v>0</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="48" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>123</v>
+      </c>
+      <c r="B48">
+        <v>69</v>
+      </c>
+      <c r="C48" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48">
+        <v>4</v>
+      </c>
+      <c r="E48">
+        <v>23</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48" t="s">
+        <v>34</v>
+      </c>
+      <c r="H48" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48">
+        <v>5</v>
+      </c>
+      <c r="J48" t="s">
+        <v>124</v>
+      </c>
+      <c r="K48" t="s">
+        <v>125</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48" t="s">
+        <v>37</v>
+      </c>
+      <c r="N48">
+        <v>5</v>
+      </c>
+      <c r="O48" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>105</v>
+      </c>
+      <c r="R48" t="s">
+        <v>59</v>
+      </c>
+      <c r="S48" t="s">
+        <v>73</v>
+      </c>
+      <c r="T48" t="s">
+        <v>86</v>
+      </c>
+      <c r="U48" t="s">
+        <v>126</v>
+      </c>
+      <c r="V48" t="s">
+        <v>127</v>
+      </c>
+      <c r="W48" t="s">
+        <v>128</v>
+      </c>
+      <c r="X48" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB48">
+        <v>1</v>
+      </c>
+      <c r="AC48">
+        <v>2</v>
+      </c>
+      <c r="AD48">
+        <v>1</v>
+      </c>
+      <c r="AE48">
+        <v>3</v>
+      </c>
+      <c r="AF48">
+        <v>0</v>
+      </c>
+      <c r="AG48">
+        <v>1</v>
+      </c>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
+      </c>
+      <c r="AJ48">
+        <v>0</v>
+      </c>
+      <c r="AK48">
+        <v>0</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="49" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>130</v>
+      </c>
+      <c r="B49">
+        <v>70</v>
+      </c>
+      <c r="C49" t="s">
+        <v>80</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+      <c r="E49">
+        <v>66</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49" t="s">
+        <v>34</v>
+      </c>
+      <c r="H49" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49">
+        <v>4</v>
+      </c>
+      <c r="J49" t="s">
         <v>131</v>
       </c>
-      <c r="B24">
-        <v>70</v>
-      </c>
-      <c r="C24" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24">
-        <v>4</v>
-      </c>
-      <c r="E24">
-        <v>66</v>
-      </c>
-      <c r="F24">
-        <v>2</v>
-      </c>
-      <c r="G24" t="s">
-        <v>35</v>
-      </c>
-      <c r="H24" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24">
-        <v>4</v>
-      </c>
-      <c r="J24" t="s">
+      <c r="K49" t="s">
         <v>132</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L49">
+        <v>2</v>
+      </c>
+      <c r="M49" t="s">
+        <v>37</v>
+      </c>
+      <c r="N49">
+        <v>1128</v>
+      </c>
+      <c r="O49" t="s">
+        <v>3</v>
+      </c>
+      <c r="P49" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>83</v>
+      </c>
+      <c r="R49" t="s">
+        <v>60</v>
+      </c>
+      <c r="S49" t="s">
+        <v>60</v>
+      </c>
+      <c r="T49" t="s">
         <v>133</v>
       </c>
-      <c r="L24">
-        <v>2</v>
-      </c>
-      <c r="M24" t="s">
-        <v>38</v>
-      </c>
-      <c r="N24">
-        <v>1128</v>
-      </c>
-      <c r="O24" t="s">
-        <v>3</v>
-      </c>
-      <c r="P24" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>84</v>
-      </c>
-      <c r="R24" t="s">
-        <v>61</v>
-      </c>
-      <c r="S24" t="s">
-        <v>61</v>
-      </c>
-      <c r="T24" t="s">
+      <c r="U49" t="s">
         <v>134</v>
       </c>
-      <c r="U24" t="s">
+      <c r="V49" t="s">
+        <v>98</v>
+      </c>
+      <c r="W49" t="s">
+        <v>97</v>
+      </c>
+      <c r="X49" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y49" t="s">
         <v>135</v>
       </c>
-      <c r="V24" t="s">
-        <v>99</v>
-      </c>
-      <c r="W24" t="s">
-        <v>98</v>
-      </c>
-      <c r="X24" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y24" t="s">
+      <c r="Z49" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA49" t="s">
         <v>136</v>
       </c>
-      <c r="Z24" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB24">
-        <v>0</v>
-      </c>
-      <c r="AC24">
-        <v>4</v>
-      </c>
-      <c r="AD24">
-        <v>1</v>
-      </c>
-      <c r="AE24">
+      <c r="AB49">
+        <v>0</v>
+      </c>
+      <c r="AC49">
+        <v>4</v>
+      </c>
+      <c r="AD49">
+        <v>1</v>
+      </c>
+      <c r="AE49">
         <v>5</v>
       </c>
-      <c r="AF24">
-        <v>0</v>
-      </c>
-      <c r="AG24">
-        <v>3</v>
-      </c>
-      <c r="AH24">
-        <v>0</v>
-      </c>
-      <c r="AI24">
-        <v>0</v>
-      </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
-      <c r="AK24">
-        <v>1</v>
-      </c>
-      <c r="AL24" t="s">
-        <v>19</v>
+      <c r="AF49">
+        <v>0</v>
+      </c>
+      <c r="AG49">
+        <v>3</v>
+      </c>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
+      </c>
+      <c r="AJ49">
+        <v>0</v>
+      </c>
+      <c r="AK49">
+        <v>1</v>
+      </c>
+      <c r="AL49" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>

--- a/data_raw/12_fish.xlsx
+++ b/data_raw/12_fish.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gradi\Dropbox\fish_parasite\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C879D1A-F8B4-42B0-807F-9F81B0948BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03ED8E01-FCDB-4897-A841-ED7B163869CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{07765D9D-DE47-4D16-83E1-981EF745AE6F}"/>
   </bookViews>
@@ -659,9 +659,6 @@
     <t>treatment</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>28/06/2022</t>
   </si>
   <si>
@@ -842,7 +839,10 @@
     <t>613.31</t>
   </si>
   <si>
-    <t>E</t>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -1196,8 +1196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96654684-AD33-4A08-BF47-85BE002B90D6}">
   <dimension ref="A1:AL49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AM38" sqref="AM38"/>
+    <sheetView tabSelected="1" topLeftCell="X22" workbookViewId="0">
+      <selection activeCell="AK50" sqref="AK50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1338,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H2" t="s">
         <v>142</v>
@@ -1347,16 +1347,16 @@
         <v>4620</v>
       </c>
       <c r="J2" t="s">
+        <v>208</v>
+      </c>
+      <c r="K2" t="s">
         <v>209</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2">
+        <v>4</v>
+      </c>
+      <c r="M2" t="s">
         <v>210</v>
-      </c>
-      <c r="L2">
-        <v>4</v>
-      </c>
-      <c r="M2" t="s">
-        <v>211</v>
       </c>
       <c r="N2">
         <v>4501</v>
@@ -1431,7 +1431,7 @@
         <v>1</v>
       </c>
       <c r="AL2" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.35">
@@ -1454,7 +1454,7 @@
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H3" t="s">
         <v>3</v>
@@ -1463,16 +1463,16 @@
         <v>984</v>
       </c>
       <c r="J3" t="s">
+        <v>212</v>
+      </c>
+      <c r="K3" t="s">
         <v>213</v>
       </c>
-      <c r="K3" t="s">
-        <v>214</v>
-      </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N3">
         <v>951</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="AL3" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.35">
@@ -1570,7 +1570,7 @@
         <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H4" t="s">
         <v>3</v>
@@ -1579,16 +1579,16 @@
         <v>526</v>
       </c>
       <c r="J4" t="s">
+        <v>215</v>
+      </c>
+      <c r="K4" t="s">
         <v>216</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4" t="s">
         <v>217</v>
-      </c>
-      <c r="L4">
-        <v>3</v>
-      </c>
-      <c r="M4" t="s">
-        <v>218</v>
       </c>
       <c r="N4">
         <v>956</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="AL4" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.35">
@@ -1686,7 +1686,7 @@
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H5" t="s">
         <v>3</v>
@@ -1695,16 +1695,16 @@
         <v>975</v>
       </c>
       <c r="J5" t="s">
+        <v>218</v>
+      </c>
+      <c r="K5" t="s">
         <v>219</v>
       </c>
-      <c r="K5" t="s">
-        <v>220</v>
-      </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N5">
         <v>4591</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="AL5" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.35">
@@ -1802,7 +1802,7 @@
         <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H6" t="s">
         <v>3</v>
@@ -1811,16 +1811,16 @@
         <v>980</v>
       </c>
       <c r="J6" t="s">
+        <v>221</v>
+      </c>
+      <c r="K6" t="s">
         <v>222</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
         <v>223</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6" t="s">
-        <v>224</v>
       </c>
       <c r="N6">
         <v>6</v>
@@ -1895,7 +1895,7 @@
         <v>1</v>
       </c>
       <c r="AL6" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.35">
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H7" t="s">
         <v>142</v>
@@ -1927,16 +1927,16 @@
         <v>15</v>
       </c>
       <c r="J7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K7" t="s">
         <v>225</v>
       </c>
-      <c r="K7" t="s">
-        <v>226</v>
-      </c>
       <c r="L7">
         <v>2</v>
       </c>
       <c r="M7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N7">
         <v>574</v>
@@ -2011,7 +2011,7 @@
         <v>1</v>
       </c>
       <c r="AL7" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.35">
@@ -2034,7 +2034,7 @@
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H8" t="s">
         <v>142</v>
@@ -2043,16 +2043,16 @@
         <v>588</v>
       </c>
       <c r="J8" t="s">
+        <v>226</v>
+      </c>
+      <c r="K8" t="s">
         <v>227</v>
       </c>
-      <c r="K8" t="s">
-        <v>228</v>
-      </c>
       <c r="L8">
         <v>4</v>
       </c>
       <c r="M8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N8">
         <v>4514</v>
@@ -2127,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="AL8" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.35">
@@ -2150,7 +2150,7 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H9" t="s">
         <v>142</v>
@@ -2159,16 +2159,16 @@
         <v>12</v>
       </c>
       <c r="J9" t="s">
+        <v>228</v>
+      </c>
+      <c r="K9" t="s">
         <v>229</v>
       </c>
-      <c r="K9" t="s">
-        <v>230</v>
-      </c>
       <c r="L9">
         <v>4</v>
       </c>
       <c r="M9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N9">
         <v>4502</v>
@@ -2243,7 +2243,7 @@
         <v>1</v>
       </c>
       <c r="AL9" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.35">
@@ -2266,7 +2266,7 @@
         <v>4</v>
       </c>
       <c r="G10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H10" t="s">
         <v>3</v>
@@ -2275,16 +2275,16 @@
         <v>4534</v>
       </c>
       <c r="J10" t="s">
+        <v>230</v>
+      </c>
+      <c r="K10" t="s">
         <v>231</v>
       </c>
-      <c r="K10" t="s">
-        <v>232</v>
-      </c>
       <c r="L10">
         <v>3</v>
       </c>
       <c r="M10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N10">
         <v>4585</v>
@@ -2359,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="AL10" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.35">
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H11" t="s">
         <v>142</v>
@@ -2391,16 +2391,16 @@
         <v>14</v>
       </c>
       <c r="J11" t="s">
+        <v>232</v>
+      </c>
+      <c r="K11" t="s">
         <v>233</v>
       </c>
-      <c r="K11" t="s">
-        <v>234</v>
-      </c>
       <c r="L11">
         <v>3</v>
       </c>
       <c r="M11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N11">
         <v>962</v>
@@ -2475,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="AL11" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.35">
@@ -2498,7 +2498,7 @@
         <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H12" t="s">
         <v>142</v>
@@ -2507,16 +2507,16 @@
         <v>4635</v>
       </c>
       <c r="J12" t="s">
+        <v>234</v>
+      </c>
+      <c r="K12" t="s">
         <v>235</v>
       </c>
-      <c r="K12" t="s">
-        <v>236</v>
-      </c>
       <c r="L12">
         <v>2</v>
       </c>
       <c r="M12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N12">
         <v>4</v>
@@ -2591,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="AL12" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.35">
@@ -2614,7 +2614,7 @@
         <v>3</v>
       </c>
       <c r="G13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H13" t="s">
         <v>3</v>
@@ -2623,16 +2623,16 @@
         <v>976</v>
       </c>
       <c r="J13" t="s">
+        <v>236</v>
+      </c>
+      <c r="K13" t="s">
         <v>237</v>
       </c>
-      <c r="K13" t="s">
-        <v>238</v>
-      </c>
       <c r="L13">
         <v>3</v>
       </c>
       <c r="M13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N13">
         <v>955</v>
@@ -2707,7 +2707,7 @@
         <v>1</v>
       </c>
       <c r="AL13" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.35">
@@ -2730,7 +2730,7 @@
         <v>3</v>
       </c>
       <c r="G14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H14" t="s">
         <v>3</v>
@@ -2739,16 +2739,16 @@
         <v>1010</v>
       </c>
       <c r="J14" t="s">
+        <v>239</v>
+      </c>
+      <c r="K14" t="s">
         <v>240</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14">
+        <v>3</v>
+      </c>
+      <c r="M14" t="s">
         <v>241</v>
-      </c>
-      <c r="L14">
-        <v>3</v>
-      </c>
-      <c r="M14" t="s">
-        <v>242</v>
       </c>
       <c r="N14">
         <v>994</v>
@@ -2823,7 +2823,7 @@
         <v>1</v>
       </c>
       <c r="AL14" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.35">
@@ -2846,7 +2846,7 @@
         <v>3</v>
       </c>
       <c r="G15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H15" t="s">
         <v>3</v>
@@ -2855,16 +2855,16 @@
         <v>1022</v>
       </c>
       <c r="J15" t="s">
+        <v>243</v>
+      </c>
+      <c r="K15" t="s">
         <v>244</v>
       </c>
-      <c r="K15" t="s">
-        <v>245</v>
-      </c>
       <c r="L15">
         <v>2</v>
       </c>
       <c r="M15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N15">
         <v>602</v>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="AL15" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.35">
@@ -2962,7 +2962,7 @@
         <v>2</v>
       </c>
       <c r="G16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H16" t="s">
         <v>142</v>
@@ -2971,16 +2971,16 @@
         <v>623</v>
       </c>
       <c r="J16" t="s">
+        <v>246</v>
+      </c>
+      <c r="K16" t="s">
         <v>247</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16" t="s">
         <v>248</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16" t="s">
-        <v>249</v>
       </c>
       <c r="N16">
         <v>3</v>
@@ -3055,7 +3055,7 @@
         <v>0</v>
       </c>
       <c r="AL16" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.35">
@@ -3078,7 +3078,7 @@
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H17" t="s">
         <v>142</v>
@@ -3087,16 +3087,16 @@
         <v>4</v>
       </c>
       <c r="J17" t="s">
+        <v>249</v>
+      </c>
+      <c r="K17" t="s">
         <v>250</v>
       </c>
-      <c r="K17" t="s">
-        <v>251</v>
-      </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N17">
         <v>4</v>
@@ -3171,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="AL17" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.35">
@@ -3194,7 +3194,7 @@
         <v>4</v>
       </c>
       <c r="G18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H18" t="s">
         <v>3</v>
@@ -3203,16 +3203,16 @@
         <v>4569</v>
       </c>
       <c r="J18" t="s">
+        <v>251</v>
+      </c>
+      <c r="K18" t="s">
         <v>252</v>
       </c>
-      <c r="K18" t="s">
-        <v>253</v>
-      </c>
       <c r="L18">
         <v>3</v>
       </c>
       <c r="M18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N18">
         <v>998</v>
@@ -3287,7 +3287,7 @@
         <v>1</v>
       </c>
       <c r="AL18" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.35">
@@ -3310,7 +3310,7 @@
         <v>4</v>
       </c>
       <c r="G19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H19" t="s">
         <v>3</v>
@@ -3319,16 +3319,16 @@
         <v>4564</v>
       </c>
       <c r="J19" t="s">
+        <v>253</v>
+      </c>
+      <c r="K19" t="s">
         <v>254</v>
       </c>
-      <c r="K19" t="s">
-        <v>255</v>
-      </c>
       <c r="L19">
         <v>4</v>
       </c>
       <c r="M19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N19">
         <v>4547</v>
@@ -3403,7 +3403,7 @@
         <v>1</v>
       </c>
       <c r="AL19" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.35">
@@ -3426,7 +3426,7 @@
         <v>4</v>
       </c>
       <c r="G20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H20" t="s">
         <v>3</v>
@@ -3435,16 +3435,16 @@
         <v>4563</v>
       </c>
       <c r="J20" t="s">
+        <v>255</v>
+      </c>
+      <c r="K20" t="s">
         <v>256</v>
       </c>
-      <c r="K20" t="s">
-        <v>257</v>
-      </c>
       <c r="L20">
         <v>4</v>
       </c>
       <c r="M20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N20">
         <v>4553</v>
@@ -3519,7 +3519,7 @@
         <v>0</v>
       </c>
       <c r="AL20" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.35">
@@ -3542,7 +3542,7 @@
         <v>4</v>
       </c>
       <c r="G21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H21" t="s">
         <v>3</v>
@@ -3551,16 +3551,16 @@
         <v>4570</v>
       </c>
       <c r="J21" t="s">
+        <v>257</v>
+      </c>
+      <c r="K21" t="s">
         <v>258</v>
       </c>
-      <c r="K21" t="s">
-        <v>259</v>
-      </c>
       <c r="L21">
         <v>3</v>
       </c>
       <c r="M21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N21">
         <v>996</v>
@@ -3635,7 +3635,7 @@
         <v>1</v>
       </c>
       <c r="AL21" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.35">
@@ -3658,7 +3658,7 @@
         <v>3</v>
       </c>
       <c r="G22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H22" t="s">
         <v>3</v>
@@ -3667,16 +3667,16 @@
         <v>1021</v>
       </c>
       <c r="J22" t="s">
+        <v>259</v>
+      </c>
+      <c r="K22" t="s">
         <v>260</v>
       </c>
-      <c r="K22" t="s">
-        <v>261</v>
-      </c>
       <c r="L22">
         <v>2</v>
       </c>
       <c r="M22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N22">
         <v>601</v>
@@ -3751,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="AL22" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.35">
@@ -3774,7 +3774,7 @@
         <v>3</v>
       </c>
       <c r="G23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H23" t="s">
         <v>3</v>
@@ -3783,16 +3783,16 @@
         <v>1015</v>
       </c>
       <c r="J23" t="s">
+        <v>261</v>
+      </c>
+      <c r="K23" t="s">
         <v>262</v>
       </c>
-      <c r="K23" t="s">
-        <v>263</v>
-      </c>
       <c r="L23">
         <v>2</v>
       </c>
       <c r="M23" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N23">
         <v>608</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="AL23" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.35">
@@ -3890,7 +3890,7 @@
         <v>4</v>
       </c>
       <c r="G24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H24" t="s">
         <v>3</v>
@@ -3899,16 +3899,16 @@
         <v>4558</v>
       </c>
       <c r="J24" t="s">
+        <v>263</v>
+      </c>
+      <c r="K24" t="s">
         <v>264</v>
       </c>
-      <c r="K24" t="s">
-        <v>265</v>
-      </c>
       <c r="L24">
         <v>4</v>
       </c>
       <c r="M24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N24">
         <v>4552</v>
@@ -3983,7 +3983,7 @@
         <v>0</v>
       </c>
       <c r="AL24" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.35">
@@ -4006,7 +4006,7 @@
         <v>4</v>
       </c>
       <c r="G25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H25" t="s">
         <v>3</v>
@@ -4015,16 +4015,16 @@
         <v>4557</v>
       </c>
       <c r="J25" t="s">
+        <v>265</v>
+      </c>
+      <c r="K25" t="s">
         <v>266</v>
       </c>
-      <c r="K25" t="s">
-        <v>267</v>
-      </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N25">
         <v>6</v>
@@ -4099,7 +4099,7 @@
         <v>1</v>
       </c>
       <c r="AL25" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.35">
